--- a/biology/Médecine/San_Clemente_(film)/San_Clemente_(film).xlsx
+++ b/biology/Médecine/San_Clemente_(film)/San_Clemente_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">San Clemente est un  documentaire français réalisé par Raymond Depardon et Sophie Ristelhueber, tourné dans l'asile psychiatrique de San Clemente près de Venise. Après un premier reportage photographique en 1977, Raymond Depardon retourne à San Clemente en 1980 alors qu'il est question de fermer l'institution.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les patients de l'asile de San Clemente déambulent sous le regard complice de la caméra de Raymond Depardon. Caméra à l'épaule, souvent filmé en plan séquence, ce film est une évocation poétique de la vie dans cet ancien monastère converti en asile psychiatrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les patients de l'asile de San Clemente déambulent sous le regard complice de la caméra de Raymond Depardon. Caméra à l'épaule, souvent filmé en plan séquence, ce film est une évocation poétique de la vie dans cet ancien monastère converti en asile psychiatrique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : San Clemente
 Réalisation : Raymond Depardon et Sophie Ristelhueber
